--- a/forwardprimer-v3_38.xlsx
+++ b/forwardprimer-v3_38.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_38" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3553-ACACTCCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTCCTCATCGTCGGCAGCGTC</t>
+    <t>F3553-TCAACGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3554-GGATGTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTAGCATCGTCGGCAGCGTC</t>
+    <t>F3554-TTGAGCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGCAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3555-AACCAGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGTCATTCGTCGGCAGCGTC</t>
+    <t>F3555-CTGTACTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3556-TCACGACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGACTACTCGTCGGCAGCGTC</t>
+    <t>F3556-GTTGAGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGAGGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3557-GTGAAGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGGTGATCGTCGGCAGCGTC</t>
+    <t>F3557-AAGGTAGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTAGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3558-AAGCAGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGGATGTCGTCGGCAGCGTC</t>
+    <t>F3558-ATGAAGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3559-TAGGACATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACATCCTCGTCGGCAGCGTC</t>
+    <t>F3559-TCAACACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3560-GATCTCCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCCACATCGTCGGCAGCGTC</t>
+    <t>F3560-GGTAGCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGCTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3561-GAACAACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAACCACTCGTCGGCAGCGTC</t>
+    <t>F3561-GATGCACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGCACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3562-CACAGCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAGCACATTCGTCGGCAGCGTC</t>
+    <t>F3562-GTTCAGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3563-ACTTGACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGACGATTCGTCGGCAGCGTC</t>
+    <t>F3563-CTCGAAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3564-GTTGATCCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGATCCTGTCGTCGGCAGCGTC</t>
+    <t>F3564-ACGATGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3565-TGTTGAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGAGGAGTCGTCGGCAGCGTC</t>
+    <t>F3565-AGATGTGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3566-TACCTCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCTCAATCGTCGGCAGCGTC</t>
+    <t>F3566-AGACAGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3567-TACCATCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCATCATGTCGTCGGCAGCGTC</t>
+    <t>F3567-TGACGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3568-TCTTCCTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCCTGCTTCGTCGGCAGCGTC</t>
+    <t>F3568-GAGAAGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3569-CACCTTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACCTTCGTTTCGTCGGCAGCGTC</t>
+    <t>F3569-ATCAGGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGGTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3570-CAAGAGCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGCAAGTCGTCGGCAGCGTC</t>
+    <t>F3570-GAAGAGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3571-GCAAGACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGACTGTTCGTCGGCAGCGTC</t>
+    <t>F3571-ATGAGACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3572-ATGTGGACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGACTTTCGTCGGCAGCGTC</t>
+    <t>F3572-AGTACGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3573-ACTTCGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCGTCTTTCGTCGGCAGCGTC</t>
+    <t>F3573-GTTGAGCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGAGCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3574-TACGACTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGACTAGTTCGTCGGCAGCGTC</t>
+    <t>F3574-AGACGTTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGTTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3575-TCTCGAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGAAGGATCGTCGGCAGCGTC</t>
+    <t>F3575-TCATGTGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGTGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3576-TTCGTGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTGTACGTCGTCGGCAGCGTC</t>
+    <t>F3576-TCGAGAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3577-AAGCAGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGAAGATCGTCGGCAGCGTC</t>
+    <t>F3577-TCGAGTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3578-ACACGTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGTCACATCGTCGGCAGCGTC</t>
+    <t>F3578-TGTCTCGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3579-TCACCTAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTAGTTTCGTCGGCAGCGTC</t>
+    <t>F3579-AAGACTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3580-GCTTCACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCACGAATCGTCGGCAGCGTC</t>
+    <t>F3580-TACCTAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTAGGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3581-TTGGAACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAACTCATCGTCGGCAGCGTC</t>
+    <t>F3581-AACCAAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3582-GAACATCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACATCCTTTCGTCGGCAGCGTC</t>
+    <t>F3582-TCGTCACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCACCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3583-CTTCAGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGCTCATCGTCGGCAGCGTC</t>
+    <t>F3583-ACGAACATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAACATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3584-CTACAACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAACGACTCGTCGGCAGCGTC</t>
+    <t>F3584-TCGTACGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3585-TCTCGATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGATCTCTCGTCGGCAGCGTC</t>
+    <t>F3585-CGTCACAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCACAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3586-AGTGCACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCACTACTCGTCGGCAGCGTC</t>
+    <t>F3586-AGCTAGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3587-TCTCCAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCAGTGTTCGTCGGCAGCGTC</t>
+    <t>F3587-GTACACACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3588-TACAGGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGATGCTCGTCGGCAGCGTC</t>
+    <t>F3588-TACAGGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3589-TCAGATGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGATGATCTCGTCGGCAGCGTC</t>
+    <t>F3589-ACGACCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACCAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3590-TGTACAGGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACAGGTGTCGTCGGCAGCGTC</t>
+    <t>F3590-CTACGTTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3591-AGTAGTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTGATCTCGTCGGCAGCGTC</t>
+    <t>F3591-AGTACTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3592-GTACTCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTCACAGTCGTCGGCAGCGTC</t>
+    <t>F3592-CAAGAGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3593-GATCAAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAAGAGTTCGTCGGCAGCGTC</t>
+    <t>F3593-TGTACACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3594-ACATCTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCTGACATCGTCGGCAGCGTC</t>
+    <t>F3594-GCTCAACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCAACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3595-AGTCCTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTGACATCGTCGGCAGCGTC</t>
+    <t>F3595-ACGTTCTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3596-TTCACACTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACACTCGTCGTCGGCAGCGTC</t>
+    <t>F3596-ATCAACTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAACTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3597-CAAGTAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTAGATGTCGTCGGCAGCGTC</t>
+    <t>F3597-TCCTACTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3598-AAGTGTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTTCTCTCGTCGGCAGCGTC</t>
+    <t>F3598-ATGAGGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3599-GAACAGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGTCCATCGTCGGCAGCGTC</t>
+    <t>F3599-TGAGTTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3600-GTTCCTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTCATGTCGTCGGCAGCGTC</t>
+    <t>F3600-AGAACCATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3601-CTGCTTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTTCGAATCGTCGGCAGCGTC</t>
+    <t>F3601-GACGTAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGTAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3602-CATCTACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTACGAATCGTCGGCAGCGTC</t>
+    <t>F3602-GTTCTACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTACTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3603-TGTCCAACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCAACTTTCGTCGGCAGCGTC</t>
+    <t>F3603-AGATCGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCGATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3604-AACGTCTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCTCAGTCGTCGGCAGCGTC</t>
+    <t>F3604-GAGGATGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGATGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3605-TAGCTCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCAGATTCGTCGGCAGCGTC</t>
+    <t>F3605-TCTAGACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3606-AACGTCAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCAGTCTCGTCGGCAGCGTC</t>
+    <t>F3606-AAGTGACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGACTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3607-ACAAGGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGTCTGTCGTCGGCAGCGTC</t>
+    <t>F3607-TGTCTCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3608-GTGAGTTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGTTCTGTCGTCGGCAGCGTC</t>
+    <t>F3608-ACCTAGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3609-TCAAGTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGTCAACTCGTCGGCAGCGTC</t>
+    <t>F3609-TACTCTCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTCGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3610-CAAGCTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTACTCTCGTCGGCAGCGTC</t>
+    <t>F3610-AACCACTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCACTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3611-ACTCTTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTTCTCTTCGTCGGCAGCGTC</t>
+    <t>F3611-TCATCGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3612-GATGTGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGAACTTCGTCGGCAGCGTC</t>
+    <t>F3612-TGAAGGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGGAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3613-GAAGGACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGACATCTCGTCGGCAGCGTC</t>
+    <t>F3613-CTCAGTTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGTTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3614-TTGTCGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCGTACGTCGTCGGCAGCGTC</t>
+    <t>F3614-TAGGTCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTCTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3615-GAAGTCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCTCATTCGTCGGCAGCGTC</t>
+    <t>F3615-AGCAGGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3616-GTTCCTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTGTGTTCGTCGGCAGCGTC</t>
+    <t>F3616-TCTCAGGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3617-ACAGCACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCACATGTCGTCGGCAGCGTC</t>
+    <t>F3617-TGAGCTACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3618-ACACTACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTACCACTCGTCGGCAGCGTC</t>
+    <t>F3618-CTGTGTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGTTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3619-AAGCTTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTTGGTATCGTCGGCAGCGTC</t>
+    <t>F3619-ATGGTCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3620-ACAACGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACGACTATCGTCGGCAGCGTC</t>
+    <t>F3620-AAGTAGCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3621-TACCACACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCACACCATCGTCGGCAGCGTC</t>
+    <t>F3621-GTGAGAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGAACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F3622-TCAACTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTGGATTCGTCGGCAGCGTC</t>
+    <t>F3622-GTTCAGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F3623-TTCCACGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACGTCTTCGTCGGCAGCGTC</t>
+    <t>F3623-GTAGTCTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F3624-GTCTTCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTCAACCTCGTCGGCAGCGTC</t>
+    <t>F3624-TCGATCCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F3625-CAACCACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCACCATTCGTCGGCAGCGTC</t>
+    <t>F3625-CCACATGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACATGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F3626-AGTGACTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACTTGATCGTCGGCAGCGTC</t>
+    <t>F3626-TAGCACGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F3627-TAGCATGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCATGCAGTCGTCGGCAGCGTC</t>
+    <t>F3627-AAGCTGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F3628-AGAGACACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACACAATCGTCGGCAGCGTC</t>
+    <t>F3628-ACCTTGATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTTGATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F3629-TGTGATCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGATCTGATCGTCGGCAGCGTC</t>
+    <t>F3629-ATCTCGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F3630-CTCGATCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATCATGTCGTCGGCAGCGTC</t>
+    <t>F3630-AAGCATCCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCATCCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F3631-TCAACCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACCAGTGTCGTCGGCAGCGTC</t>
+    <t>F3631-ACCTCTTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F3632-TAGGTACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTACACATCGTCGGCAGCGTC</t>
+    <t>F3632-TGAACCTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACCTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F3633-ATGTGTAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGTAGGTTCGTCGGCAGCGTC</t>
+    <t>F3633-TCGTAGTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F3634-GCTTGCTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGCTTGATCGTCGGCAGCGTC</t>
+    <t>F3634-TCACCAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F3635-GAACCTGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTGTTGTCGTCGGCAGCGTC</t>
+    <t>F3635-CCTTGATCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGATCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F3636-TAGCAACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAACCTTTCGTCGGCAGCGTC</t>
+    <t>F3636-ACTCCACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F3637-TCAGCAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCAAGGTTCGTCGGCAGCGTC</t>
+    <t>F3637-CTCACTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F3638-TGAACACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACACAGATCGTCGGCAGCGTC</t>
+    <t>F3638-ACGTTGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3639-AAGACCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCACATTCGTCGGCAGCGTC</t>
+    <t>F3639-TCCATCTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3640-TCACGAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGAGTGATCGTCGGCAGCGTC</t>
+    <t>F3640-CAGCAACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCAACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3641-GTGTCTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTGTCATCGTCGGCAGCGTC</t>
+    <t>F3641-CATCATCCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCATCCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3642-TCGTTGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGAGTTTCGTCGGCAGCGTC</t>
+    <t>F3642-TCTGATCGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGATCGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3643-GAGTCTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTCAACTCGTCGGCAGCGTC</t>
+    <t>F3643-AGACTAGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTAGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3644-AGGAGATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGATCACTCGTCGGCAGCGTC</t>
+    <t>F3644-TTCTCCTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCCTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3645-TGACAGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGTGAGTCGTCGGCAGCGTC</t>
+    <t>F3645-TCTACAGGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACAGGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3646-CTACTGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGCACATCGTCGGCAGCGTC</t>
+    <t>F3646-AACTGGAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGGAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3647-TCGAGTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGTAGAGTCGTCGGCAGCGTC</t>
+    <t>F3647-TGTGTCGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3648-GACTAGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTAGAACATCGTCGGCAGCGTC</t>
+    <t>F3648-ACACAAGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGTGGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
